--- a/generation_time_Cp_removal/190110_generation_time_without_Cp.xlsx
+++ b/generation_time_Cp_removal/190110_generation_time_without_Cp.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuta_koganezawa/Documents/Wakamoto_lab/FpLrT10/New_MM/2nd_drug_exposure/Survivial_rate/before_Cp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuta_koganezawa/Documents/Wakamoto_lab/paper_data/Phenotypic_Buffering/generation_time_Cp_removal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1799193F-B2B7-6745-8D4F-F1E8297CC0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC4A52F-01B6-014E-99DD-DE76EE59852D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14020" yWindow="460" windowWidth="14020" windowHeight="18540" xr2:uid="{80DAA8D2-7EEF-0747-BEF2-A33E60B2183C}"/>
   </bookViews>
   <sheets>
-    <sheet name="dividing_cell" sheetId="1" r:id="rId1"/>
-    <sheet name="non-dividing_cell" sheetId="2" r:id="rId2"/>
-    <sheet name="resistant_cell" sheetId="3" r:id="rId3"/>
+    <sheet name="growth-restored cell lineage" sheetId="1" r:id="rId1"/>
+    <sheet name="growth-halted cell lineage" sheetId="2" r:id="rId2"/>
+    <sheet name="non-deleted cell lineage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
